--- a/Resources/2011/Basic_Percentile_2011.xlsx
+++ b/Resources/2011/Basic_Percentile_2011.xlsx
@@ -1540,7 +1540,7 @@
     <t>Lamar Odom</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Chris Bosh</t>
@@ -1654,7 +1654,7 @@
     <t>Danilo Gallinari</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>James Johnson</t>
@@ -1669,7 +1669,7 @@
     <t>Carlos Delfino</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Chris Kaman</t>
@@ -1705,7 +1705,7 @@
     <t>Chauncey Billups</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>DeJuan Blair</t>
@@ -1810,7 +1810,7 @@
     <t>Wesley Matthews</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>George Hill</t>
@@ -1852,10 +1852,10 @@
     <t>Kirk Hinrich</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
-  </si>
-  <si>
-    <t>Steve Nash*</t>
+    <t>Yao Ming</t>
+  </si>
+  <si>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Tyson Chandler</t>
